--- a/测试问题.xlsx
+++ b/测试问题.xlsx
@@ -392,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -414,7 +414,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -422,7 +422,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,7 +462,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
